--- a/BackTest/2020-01-11 BackTest EOS.xlsx
+++ b/BackTest/2020-01-11 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>205377.41904947</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>205477.41904947</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>204730.89934947</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>206001.98334947</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-624762.2168154406</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-625743.5858154405</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-624905.7701154405</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-625183.8645154404</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-621793.3765154404</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-621685.4435154404</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-622520.3830154404</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-620308.0630154405</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-620321.6134154404</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-620103.1069292604</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-620300.5643292604</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-620307.7443292604</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-620225.1419292605</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-621297.7203292605</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-621297.7203292605</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-621295.4607292605</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-624830.7310292604</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-624828.6110292604</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-624988.5731292604</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-624988.5731292604</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-626150.8613292604</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-626932.0826292604</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-626932.0826292604</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-625545.8993292603</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-625652.7393292603</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-625701.9068292603</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-624476.3486292603</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-624526.3486292603</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-624260.5713292604</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-623123.7276292604</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-624416.5483292604</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-624925.1864292604</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-625046.7221292604</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-626417.6344292604</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-642239.3722292604</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-635483.2215292604</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-634473.0029186504</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-633945.4334186504</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-652751.5276186505</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-653428.7051186505</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-653019.0570186505</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-615396.2647499704</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-614646.2647499704</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-614514.5287931404</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-614762.2188931404</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-613763.7755931404</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-618807.7600931404</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-613120.1281931404</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-616334.4808931404</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-616334.4808931404</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-616345.4793931404</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-616673.2295918004</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-617920.4500918004</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-614869.5501918003</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-612946.4340918004</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-612627.0589918004</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-612622.8283918004</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-626889.9151337903</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-624063.1645337903</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-625116.0908337904</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-625764.4983337903</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-625350.0613337903</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-622817.9373616803</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-615131.5268698004</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-618185.3130698004</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-620362.6086698003</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -26125,17 +26125,11 @@
         <v>-889886.6469365511</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>3079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26164,17 +26158,11 @@
         <v>-888275.6284365511</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>3076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26203,17 +26191,11 @@
         <v>-890293.8868365511</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>3081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26242,17 +26224,11 @@
         <v>-890387.4728365511</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26281,17 +26257,11 @@
         <v>-907751.9471365511</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>3076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26328,7 +26298,7 @@
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L785" t="n">
@@ -26554,11 +26524,9 @@
         <v>-909276.9663365511</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>3079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -26593,11 +26561,9 @@
         <v>-909720.7772365512</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>3090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -26632,11 +26598,9 @@
         <v>-907710.9995426511</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>3083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -26671,11 +26635,9 @@
         <v>-888158.8838426512</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>3091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -26932,11 +26894,9 @@
         <v>-897346.5566191411</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -26971,11 +26931,9 @@
         <v>-896846.5142191411</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27010,11 +26968,9 @@
         <v>-887812.9071191411</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>3074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27049,11 +27005,9 @@
         <v>-891443.192919141</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>3075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27088,11 +27042,9 @@
         <v>-892866.867419141</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>3074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27127,11 +27079,9 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>3070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27166,11 +27116,9 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>3074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27205,11 +27153,9 @@
         <v>-890192.211519141</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>3074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27244,11 +27190,9 @@
         <v>-890375.384619141</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>3076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27283,11 +27227,9 @@
         <v>-890070.972719141</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27322,11 +27264,9 @@
         <v>-890086.6767191411</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>3078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27361,11 +27301,9 @@
         <v>-889690.0049191411</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>3076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27400,11 +27338,9 @@
         <v>-888029.0960395711</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27439,11 +27375,9 @@
         <v>-886266.8581395712</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -28514,18 +28448,16 @@
         <v>-894559.1188751712</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="inlineStr"/>
     </row>
     <row r="844">
@@ -28551,15 +28483,11 @@
         <v>-898187.6479751712</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28588,15 +28516,11 @@
         <v>-897683.8582751713</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28625,15 +28549,11 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28662,15 +28582,11 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28699,15 +28615,11 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28736,15 +28648,11 @@
         <v>-912361.0425751712</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28773,15 +28681,11 @@
         <v>-908476.2852751712</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28810,15 +28714,11 @@
         <v>-898666.6954751712</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28847,15 +28747,11 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28884,15 +28780,11 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28921,15 +28813,11 @@
         <v>-885602.4576751712</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28958,15 +28846,11 @@
         <v>-884226.5355751712</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28995,15 +28879,11 @@
         <v>-867379.7632751713</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29032,15 +28912,11 @@
         <v>-869958.7287751713</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29073,11 +28949,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29110,11 +28982,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29147,11 +29015,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29184,11 +29048,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29221,11 +29081,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29258,11 +29114,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29291,15 +29143,11 @@
         <v>-873903.9306751713</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29328,15 +29176,11 @@
         <v>-872692.1288751713</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29365,15 +29209,11 @@
         <v>-872660.2267751714</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29402,15 +29242,11 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29439,15 +29275,11 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29476,17 +29308,11 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>3146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29515,17 +29341,11 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>3146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29554,17 +29374,11 @@
         <v>-878686.6486565813</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>3146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29593,17 +29407,11 @@
         <v>-878686.6486565813</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>3150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29632,17 +29440,11 @@
         <v>-878414.9626565813</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>3150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29675,11 +29477,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29712,11 +29510,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29745,17 +29539,11 @@
         <v>-877446.0341349014</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>3156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29784,17 +29572,11 @@
         <v>-877446.0341349014</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>3155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29823,17 +29605,11 @@
         <v>-875794.3411349014</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>3155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29862,17 +29638,11 @@
         <v>-879542.1299349014</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>3157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29901,17 +29671,11 @@
         <v>-874754.7931349013</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>3154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29940,17 +29704,11 @@
         <v>-871530.0398349013</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>3158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29979,17 +29737,11 @@
         <v>-878298.9733349014</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>3162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30018,17 +29770,11 @@
         <v>-875320.4934349013</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>3161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30061,11 +29807,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30098,11 +29840,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30135,11 +29873,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30172,11 +29906,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30209,11 +29939,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30246,11 +29972,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30279,17 +30001,11 @@
         <v>-833725.3996729814</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>3170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30322,11 +30038,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30359,11 +30071,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30396,11 +30104,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30433,11 +30137,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30470,11 +30170,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30507,11 +30203,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30544,11 +30236,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30581,11 +30269,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30618,11 +30302,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30655,11 +30335,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30692,11 +30368,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30729,11 +30401,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30766,11 +30434,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30803,11 +30467,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30840,11 +30500,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +30533,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30914,11 +30566,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30951,11 +30599,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30988,11 +30632,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31025,11 +30665,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31062,11 +30698,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31099,11 +30731,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31136,11 +30764,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31173,11 +30797,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31210,11 +30830,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31247,11 +30863,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31284,11 +30896,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31321,11 +30929,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31358,11 +30962,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31395,11 +30995,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31432,11 +31028,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31469,11 +31061,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31506,11 +31094,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31543,11 +31127,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31580,11 +31160,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31617,11 +31193,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31654,11 +31226,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31691,11 +31259,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31728,11 +31292,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31765,11 +31325,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31802,11 +31358,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31839,11 +31391,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31876,11 +31424,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31913,11 +31457,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31950,11 +31490,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31987,11 +31523,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32024,11 +31556,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32061,11 +31589,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +31622,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32135,11 +31655,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32172,11 +31688,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32209,11 +31721,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32246,11 +31754,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32283,11 +31787,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32320,11 +31820,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32357,11 +31853,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32394,11 +31886,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32431,11 +31919,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32468,11 +31952,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32505,11 +31985,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32542,11 +32018,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32579,11 +32051,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32616,11 +32084,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32653,11 +32117,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32690,11 +32150,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32727,11 +32183,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32764,11 +32216,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32801,11 +32249,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32838,11 +32282,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32875,11 +32315,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32912,11 +32348,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32949,11 +32381,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32986,11 +32414,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33023,11 +32447,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33060,11 +32480,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33097,11 +32513,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33130,16 +32542,14 @@
         <v>-739135.3636163115</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
       <c r="M967" t="inlineStr"/>
     </row>
     <row r="968">
@@ -33165,7 +32575,7 @@
         <v>-740684.2871163115</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33198,7 +32608,7 @@
         <v>-740689.2871163115</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33231,7 +32641,7 @@
         <v>-749845.5393163115</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33264,7 +32674,7 @@
         <v>-756498.1862163115</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33297,7 +32707,7 @@
         <v>-753179.4510163115</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33330,7 +32740,7 @@
         <v>-756726.4476163115</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33363,7 +32773,7 @@
         <v>-759600.3386163114</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33396,7 +32806,7 @@
         <v>-758178.1220163114</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33429,7 +32839,7 @@
         <v>-758139.8464163113</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33462,7 +32872,7 @@
         <v>-758128.1217163113</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33495,7 +32905,7 @@
         <v>-758031.3656163113</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33528,7 +32938,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33561,7 +32971,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33594,7 +33004,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33627,7 +33037,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33660,7 +33070,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33693,7 +33103,7 @@
         <v>-759412.6129163114</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33726,7 +33136,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33759,7 +33169,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33792,7 +33202,7 @@
         <v>-750585.5502163114</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33825,7 +33235,7 @@
         <v>-755883.4842163114</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33858,7 +33268,7 @@
         <v>-756117.8788163114</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33891,7 +33301,7 @@
         <v>-755817.8788163114</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33924,7 +33334,7 @@
         <v>-762813.6526163113</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33957,7 +33367,7 @@
         <v>-758900.5766163113</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33990,7 +33400,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34023,7 +33433,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34056,7 +33466,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34089,7 +33499,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34122,7 +33532,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34155,7 +33565,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34188,7 +33598,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34221,7 +33631,7 @@
         <v>-760296.1812163113</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34254,7 +33664,7 @@
         <v>-760990.3912163113</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34287,7 +33697,7 @@
         <v>-761536.6165163113</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34683,7 +34093,7 @@
         <v>-771945.7708163114</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34716,7 +34126,7 @@
         <v>-768859.1260163113</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34749,7 +34159,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34782,7 +34192,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34815,7 +34225,7 @@
         <v>-769281.2823163114</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34958,6 +34368,6 @@
       <c r="M1022" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest EOS.xlsx
+++ b/BackTest/2020-01-11 BackTest EOS.xlsx
@@ -5170,7 +5170,7 @@
         <v>-624905.7701154405</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-625183.8645154404</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-621793.3765154404</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-621685.4435154404</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-625545.8993292603</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-625046.7221292604</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-626417.6344292604</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-642239.3722292604</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-635483.2215292604</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-634473.0029186504</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-633945.4334186504</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-652751.5276186505</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-653428.7051186505</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-653019.0570186505</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-621161.7551499704</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-621161.7551499704</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-621972.6745499704</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-621972.6745499704</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-618869.0297499704</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-618869.0297499704</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-618056.7219499705</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-615042.5604499704</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-614557.5093499704</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-617906.0970918004</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-617906.0970918004</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-616753.9361918004</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-616753.9361918004</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-615169.5501918003</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-627328.4543337903</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-627328.4543337903</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-627475.6961337903</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-629473.4302337903</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-628502.3822337904</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-628600.1518337904</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-628624.0504337903</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-628624.0504337903</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-628679.1660337903</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-628679.1660337903</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-625967.9002337903</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-625967.9002337903</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-626296.4479337903</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-626296.4479337903</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-626305.9040337902</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-625556.6616770003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-624436.6126337904</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-625272.7581337903</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-625894.9270337904</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-625916.0960337904</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-625916.0960337904</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-625664.0002337904</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-625414.0002337904</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-623004.4979337903</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-623325.2841337903</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-623325.2841337903</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-623008.7282616803</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-623554.1938616803</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-622717.9373616803</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-622827.5082616804</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-618720.9903616804</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-618946.9723616804</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-617773.3817303304</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-617773.3817303304</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-618080.6769303305</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-618080.6769303305</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-615577.8188303305</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-615578.3925303305</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-615578.3925303305</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-615482.9830698004</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-615482.9830698004</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-615836.4777698005</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-615649.7336698005</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-615649.7336698005</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-621914.9746698004</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-628459.1784698004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-640222.1810344204</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-640223.1810344204</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-641446.8837344204</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-641446.8837344204</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-641449.6837344205</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-640868.9217344205</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-640868.9217344205</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-640869.0761344205</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-640902.6478344204</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-640902.6478344204</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-637262.9717344205</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-637698.5081344205</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-637363.3422344205</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-637363.3422344205</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-637380.6852344205</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-639431.2271344204</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -26191,11 +26191,17 @@
         <v>-890293.8868365511</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>3081</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26234,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26271,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26298,7 +26312,7 @@
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L785" t="n">
@@ -26524,9 +26538,11 @@
         <v>-909276.9663365511</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>3079</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -26561,9 +26577,11 @@
         <v>-909720.7772365512</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>3090</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -26598,9 +26616,11 @@
         <v>-907710.9995426511</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3083</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -26635,9 +26655,11 @@
         <v>-888158.8838426512</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3091</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -26672,9 +26694,11 @@
         <v>-876240.8719191412</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>3093</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -26931,9 +26955,11 @@
         <v>-896846.5142191411</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>3072</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -26968,9 +26994,11 @@
         <v>-887812.9071191411</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>3074</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27005,9 +27033,11 @@
         <v>-891443.192919141</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>3075</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27042,9 +27072,11 @@
         <v>-892866.867419141</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>3074</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27079,9 +27111,11 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>3070</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27116,9 +27150,11 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>3074</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27153,9 +27189,11 @@
         <v>-890192.211519141</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>3074</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27190,9 +27228,11 @@
         <v>-890375.384619141</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>3076</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27227,9 +27267,11 @@
         <v>-890070.972719141</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>3071</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27264,9 +27306,11 @@
         <v>-890086.6767191411</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>3078</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27301,9 +27345,11 @@
         <v>-889690.0049191411</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>3076</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27338,9 +27384,11 @@
         <v>-888029.0960395711</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>3084</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27375,9 +27423,11 @@
         <v>-886266.8581395712</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>3085</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27412,9 +27462,11 @@
         <v>-887507.2884395712</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3092</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27449,9 +27501,11 @@
         <v>-887216.9917395712</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3083</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27486,9 +27540,11 @@
         <v>-887308.7709395712</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3085</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28004,9 +28060,11 @@
         <v>-889003.6391560012</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>3104</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28041,9 +28099,11 @@
         <v>-890383.7883560011</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3105</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28078,9 +28138,11 @@
         <v>-894246.9281560011</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>3104</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28115,9 +28177,11 @@
         <v>-895298.4558560011</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3103</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28152,9 +28216,11 @@
         <v>-895297.9958560012</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3097</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28189,9 +28255,11 @@
         <v>-895297.9958560012</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3098</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28226,9 +28294,11 @@
         <v>-889242.9611560012</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3098</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28263,9 +28333,11 @@
         <v>-875884.1354560012</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3116</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28448,16 +28520,18 @@
         <v>-894559.1188751712</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
       <c r="M843" t="inlineStr"/>
     </row>
     <row r="844">
@@ -28483,11 +28557,15 @@
         <v>-898187.6479751712</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28516,11 +28594,15 @@
         <v>-897683.8582751713</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28549,11 +28631,15 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28582,11 +28668,15 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28615,11 +28705,15 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28648,11 +28742,15 @@
         <v>-912361.0425751712</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28681,11 +28779,15 @@
         <v>-908476.2852751712</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28714,11 +28816,15 @@
         <v>-898666.6954751712</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28747,11 +28853,15 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28780,11 +28890,15 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28813,11 +28927,15 @@
         <v>-885602.4576751712</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28846,11 +28964,15 @@
         <v>-884226.5355751712</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28879,11 +29001,15 @@
         <v>-867379.7632751713</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28912,11 +29038,15 @@
         <v>-869958.7287751713</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28949,7 +29079,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28982,7 +29116,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29015,7 +29153,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29048,7 +29190,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29081,7 +29227,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29114,7 +29264,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29143,11 +29297,15 @@
         <v>-873903.9306751713</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29176,11 +29334,15 @@
         <v>-872692.1288751713</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29209,11 +29371,15 @@
         <v>-872660.2267751714</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29242,11 +29408,15 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29275,11 +29445,15 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29312,7 +29486,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29345,7 +29523,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29378,7 +29560,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29411,7 +29597,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29444,7 +29634,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29477,7 +29671,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29510,7 +29708,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29543,7 +29745,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29576,7 +29782,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29609,7 +29819,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29642,7 +29856,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29675,7 +29893,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29708,7 +29930,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29741,7 +29967,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29774,7 +30004,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29807,7 +30041,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29840,7 +30078,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29873,7 +30115,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29906,7 +30152,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29939,7 +30189,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29972,7 +30226,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30001,14 +30259,16 @@
         <v>-833725.3996729814</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="inlineStr"/>
     </row>
     <row r="891">
@@ -30892,7 +31152,7 @@
         <v>-830847.3269507614</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30925,7 +31185,7 @@
         <v>-832771.9770507613</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30991,7 +31251,7 @@
         <v>-833903.5183507614</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31024,7 +31284,7 @@
         <v>-828535.8725507613</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31057,7 +31317,7 @@
         <v>-823069.1586507614</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31090,7 +31350,7 @@
         <v>-808807.7969507613</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31123,7 +31383,7 @@
         <v>-802720.0214603114</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31156,7 +31416,7 @@
         <v>-829369.2386884714</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31189,7 +31449,7 @@
         <v>-827610.0373884714</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31222,7 +31482,7 @@
         <v>-820989.3466884714</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31255,7 +31515,7 @@
         <v>-819939.8807532714</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31288,7 +31548,7 @@
         <v>-832227.6601532714</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31321,7 +31581,7 @@
         <v>-812826.0268452014</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31354,7 +31614,7 @@
         <v>-789514.8485452014</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31387,7 +31647,7 @@
         <v>-796534.8890452014</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31420,7 +31680,7 @@
         <v>-790695.8270834114</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31453,7 +31713,7 @@
         <v>-768262.0832834113</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31486,7 +31746,7 @@
         <v>-762427.7710290613</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31519,7 +31779,7 @@
         <v>-756979.4695290613</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31552,7 +31812,7 @@
         <v>-765339.5921398413</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31585,7 +31845,7 @@
         <v>-766311.2354680913</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31618,7 +31878,7 @@
         <v>-761132.8475680914</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31651,7 +31911,7 @@
         <v>-757378.5299163114</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31684,7 +31944,7 @@
         <v>-762364.0304163113</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31717,7 +31977,7 @@
         <v>-767427.6822163113</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31750,7 +32010,7 @@
         <v>-763858.6564163114</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31783,7 +32043,7 @@
         <v>-766377.2290163114</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31816,7 +32076,7 @@
         <v>-767934.7491163113</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31849,7 +32109,7 @@
         <v>-769501.9645163113</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31882,7 +32142,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31915,7 +32175,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31948,7 +32208,7 @@
         <v>-773152.3869163112</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31981,7 +32241,7 @@
         <v>-774864.4802163112</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32014,7 +32274,7 @@
         <v>-769365.3915163112</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32047,7 +32307,7 @@
         <v>-764992.1758163113</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32080,7 +32340,7 @@
         <v>-766913.4682163113</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32113,7 +32373,7 @@
         <v>-766670.5425163113</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32146,7 +32406,7 @@
         <v>-769481.6122163113</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32179,7 +32439,7 @@
         <v>-768852.2152163113</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32212,7 +32472,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32245,7 +32505,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32278,7 +32538,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32311,7 +32571,7 @@
         <v>-766227.7475163114</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32344,7 +32604,7 @@
         <v>-768293.8274163114</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32377,7 +32637,7 @@
         <v>-768285.5523163114</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32410,7 +32670,7 @@
         <v>-762216.5388163114</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32443,7 +32703,7 @@
         <v>-733862.6831163114</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32476,7 +32736,7 @@
         <v>-745180.8982163115</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32509,7 +32769,7 @@
         <v>-744541.3279163114</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32542,7 +32802,7 @@
         <v>-739135.3636163115</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32575,7 +32835,7 @@
         <v>-740684.2871163115</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32608,7 +32868,7 @@
         <v>-740689.2871163115</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32641,7 +32901,7 @@
         <v>-749845.5393163115</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32674,7 +32934,7 @@
         <v>-756498.1862163115</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32707,7 +32967,7 @@
         <v>-753179.4510163115</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32740,7 +33000,7 @@
         <v>-756726.4476163115</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32773,7 +33033,7 @@
         <v>-759600.3386163114</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32806,7 +33066,7 @@
         <v>-758178.1220163114</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32839,7 +33099,7 @@
         <v>-758139.8464163113</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32872,7 +33132,7 @@
         <v>-758128.1217163113</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32905,7 +33165,7 @@
         <v>-758031.3656163113</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32938,7 +33198,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32971,7 +33231,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33004,7 +33264,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33037,7 +33297,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33070,7 +33330,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33103,7 +33363,7 @@
         <v>-759412.6129163114</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33136,7 +33396,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33169,7 +33429,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33202,7 +33462,7 @@
         <v>-750585.5502163114</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33235,7 +33495,7 @@
         <v>-755883.4842163114</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33268,7 +33528,7 @@
         <v>-756117.8788163114</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33301,7 +33561,7 @@
         <v>-755817.8788163114</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33334,7 +33594,7 @@
         <v>-762813.6526163113</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33367,7 +33627,7 @@
         <v>-758900.5766163113</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33400,7 +33660,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33433,7 +33693,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33466,7 +33726,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33499,7 +33759,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33532,7 +33792,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33565,7 +33825,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33598,7 +33858,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33631,7 +33891,7 @@
         <v>-760296.1812163113</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33664,7 +33924,7 @@
         <v>-760990.3912163113</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33697,7 +33957,7 @@
         <v>-761536.6165163113</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33730,7 +33990,7 @@
         <v>-771925.5041163113</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33829,7 +34089,7 @@
         <v>-771877.6535163113</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33862,7 +34122,7 @@
         <v>-771877.6535163113</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33895,7 +34155,7 @@
         <v>-759941.7904163114</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33928,7 +34188,7 @@
         <v>-760789.7424163114</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33961,7 +34221,7 @@
         <v>-759850.7283163114</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34027,7 +34287,7 @@
         <v>-759213.3107163113</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34060,7 +34320,7 @@
         <v>-782228.8641163113</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34093,7 +34353,7 @@
         <v>-771945.7708163114</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34126,7 +34386,7 @@
         <v>-768859.1260163113</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34159,7 +34419,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34192,7 +34452,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34225,7 +34485,7 @@
         <v>-769281.2823163114</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34291,7 +34551,7 @@
         <v>-769394.9173163114</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34324,7 +34584,7 @@
         <v>-767880.9657163114</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34357,7 +34617,7 @@
         <v>-767870.7746163113</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
